--- a/Miami/Test.xlsx
+++ b/Miami/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,12 +32,399 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>MEDU8499476</t>
+  </si>
+  <si>
+    <t>MSC TORONTO</t>
+  </si>
+  <si>
+    <t>00914</t>
+  </si>
+  <si>
+    <t>7150388891</t>
+  </si>
+  <si>
+    <t>IZ609658</t>
+  </si>
+  <si>
+    <t>FSCU8383245</t>
+  </si>
+  <si>
+    <t>CMA CGM LA SCALA</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>DJMIAA4070589</t>
+  </si>
+  <si>
+    <t>7150388496</t>
+  </si>
+  <si>
+    <t>NBCA119160</t>
+  </si>
+  <si>
+    <t>CXRU1547678</t>
+  </si>
+  <si>
+    <t>CMA CGM TARPON</t>
+  </si>
+  <si>
+    <t>027E</t>
+  </si>
+  <si>
+    <t>7232002109</t>
+  </si>
+  <si>
+    <t>4007935480</t>
+  </si>
+  <si>
+    <t>OOLU3951356</t>
+  </si>
+  <si>
+    <t>TUBUL</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>7150390038</t>
+  </si>
+  <si>
+    <t>2106328530</t>
+  </si>
+  <si>
+    <t>IPXU3928750</t>
+  </si>
+  <si>
+    <t>BALTIC BRIDGE</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>DJMIAA4052019</t>
+  </si>
+  <si>
+    <t>7150386226</t>
+  </si>
+  <si>
+    <t>TWN0351248</t>
+  </si>
+  <si>
+    <t>TCKU1253154</t>
+  </si>
+  <si>
+    <t>MSC ANTONIA</t>
+  </si>
+  <si>
+    <t>00913</t>
+  </si>
+  <si>
+    <t>7150388458</t>
+  </si>
+  <si>
+    <t>IZ593555</t>
+  </si>
+  <si>
+    <t>SZLU9032573</t>
+  </si>
+  <si>
+    <t>SEALAND WASHINGTON</t>
+  </si>
+  <si>
+    <t>915W</t>
+  </si>
+  <si>
+    <t>7232002290</t>
+  </si>
+  <si>
+    <t>LH848631</t>
+  </si>
+  <si>
+    <t>CMAU4661301</t>
+  </si>
+  <si>
+    <t>CMA CGM CHATEAU DIF</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>DJMIAA4022183</t>
+  </si>
+  <si>
+    <t>7150390088</t>
+  </si>
+  <si>
+    <t>BUP0144172</t>
+  </si>
+  <si>
+    <t>CXRU1200122</t>
+  </si>
+  <si>
+    <t>7232000419</t>
+  </si>
+  <si>
+    <t>LH828500</t>
+  </si>
+  <si>
+    <t>MEDU9156208</t>
+  </si>
+  <si>
+    <t>7232000564</t>
+  </si>
+  <si>
+    <t>LH835935</t>
+  </si>
+  <si>
+    <t>TCNU3629538</t>
+  </si>
+  <si>
+    <t>CMA CGM FLORIDA</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>DJMIAA4108440</t>
+  </si>
+  <si>
+    <t>7150390455</t>
+  </si>
+  <si>
+    <t>HLD0107415</t>
+  </si>
+  <si>
+    <t>HLBU9212941</t>
+  </si>
+  <si>
+    <t>SANTA VIOLA</t>
+  </si>
+  <si>
+    <t>001W</t>
+  </si>
+  <si>
+    <t>7232000420</t>
+  </si>
+  <si>
+    <t>HLCUEUR190427709</t>
+  </si>
+  <si>
+    <t>CMAU4862564</t>
+  </si>
+  <si>
+    <t>DJMIAA4090120</t>
+  </si>
+  <si>
+    <t>7150388553</t>
+  </si>
+  <si>
+    <t>NBCA119185</t>
+  </si>
+  <si>
+    <t>TCNU6257028</t>
+  </si>
+  <si>
+    <t>NAVIOS UNITE</t>
+  </si>
+  <si>
+    <t>DJMIAA4120190</t>
+  </si>
+  <si>
+    <t>7150388569</t>
+  </si>
+  <si>
+    <t>6202927980</t>
+  </si>
+  <si>
+    <t>TGHU4688080</t>
+  </si>
+  <si>
+    <t>DJMIAA4108449</t>
+  </si>
+  <si>
+    <t>7150390549</t>
+  </si>
+  <si>
+    <t>HLD0106908</t>
+  </si>
+  <si>
+    <t>CCLU7021521</t>
+  </si>
+  <si>
+    <t>DJMIAA4100039</t>
+  </si>
+  <si>
+    <t>7150388184</t>
+  </si>
+  <si>
+    <t>6202923952</t>
+  </si>
+  <si>
+    <t>OOLU1469941</t>
+  </si>
+  <si>
+    <t>TIRUA</t>
+  </si>
+  <si>
+    <t>018E</t>
+  </si>
+  <si>
+    <t>9075905138-01</t>
+  </si>
+  <si>
+    <t>OOLU2106531960</t>
+  </si>
+  <si>
+    <t>TEMU7603737</t>
+  </si>
+  <si>
+    <t>DJMIAA4101233</t>
+  </si>
+  <si>
+    <t>7150388182</t>
+  </si>
+  <si>
+    <t>6202923951</t>
+  </si>
+  <si>
+    <t>HLBU9080423</t>
+  </si>
+  <si>
+    <t>004W</t>
+  </si>
+  <si>
+    <t>7232003534</t>
+  </si>
+  <si>
+    <t>HLCUGOA190409294</t>
+  </si>
+  <si>
+    <t>OOLU9869646</t>
+  </si>
+  <si>
+    <t>9075905129-01</t>
+  </si>
+  <si>
+    <t>OOLU2106525340</t>
+  </si>
+  <si>
+    <t>CCLU4444176</t>
+  </si>
+  <si>
+    <t>7150388562</t>
+  </si>
+  <si>
+    <t>6201746030</t>
+  </si>
+  <si>
+    <t>APZU4898643</t>
+  </si>
+  <si>
+    <t>CMA CGM WHITE SHARK</t>
+  </si>
+  <si>
+    <t>DJMIAA4160321</t>
+  </si>
+  <si>
+    <t>7150391685</t>
+  </si>
+  <si>
+    <t>RTM0908534</t>
+  </si>
+  <si>
+    <t>MSCU3848835</t>
+  </si>
+  <si>
+    <t>MSC LUCY</t>
+  </si>
+  <si>
+    <t>00917</t>
+  </si>
+  <si>
+    <t>7150390626</t>
+  </si>
+  <si>
+    <t>IZ658531</t>
+  </si>
+  <si>
+    <t>UETU2690437</t>
+  </si>
+  <si>
+    <t>7150391122</t>
+  </si>
+  <si>
+    <t>IZ667391</t>
+  </si>
+  <si>
+    <t>TCLU4350962</t>
+  </si>
+  <si>
+    <t>APL HOLLAND</t>
+  </si>
+  <si>
+    <t>7232003065</t>
+  </si>
+  <si>
+    <t>540900075300</t>
+  </si>
+  <si>
+    <t>APZU4908150</t>
+  </si>
+  <si>
+    <t>DJMIAA4160370</t>
+  </si>
+  <si>
+    <t>7150391689</t>
+  </si>
+  <si>
+    <t>RTM0908537</t>
+  </si>
+  <si>
+    <t>ECMU4601917</t>
+  </si>
+  <si>
+    <t>DJMIAA4160400</t>
+  </si>
+  <si>
+    <t>7150391786</t>
+  </si>
+  <si>
+    <t>RTM0908350</t>
+  </si>
+  <si>
+    <t>GESU5553600</t>
+  </si>
+  <si>
+    <t>CMA CGM OTELLO</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>7150390445</t>
+  </si>
+  <si>
+    <t>SEL0854936</t>
+  </si>
+  <si>
+    <t>GLDU4028645</t>
+  </si>
+  <si>
+    <t>MF917W</t>
+  </si>
+  <si>
+    <t>9076905736-01</t>
+  </si>
+  <si>
+    <t>MEDUQD534663</t>
+  </si>
+  <si>
     <t>ECMU4396108</t>
   </si>
   <si>
-    <t>CMA CGM OTELLO</t>
-  </si>
-  <si>
     <t>0PG3JE1PL</t>
   </si>
   <si>
@@ -47,217 +434,28 @@
     <t>APLUAJD0265261</t>
   </si>
   <si>
-    <t>TGHU4688080</t>
-  </si>
-  <si>
-    <t>CMA CGM FLORIDA</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>DJMIAA4108449</t>
-  </si>
-  <si>
-    <t>7150390549</t>
-  </si>
-  <si>
-    <t>HLD0106908</t>
-  </si>
-  <si>
-    <t>UETU2690437</t>
-  </si>
-  <si>
-    <t>MSC LUCY</t>
-  </si>
-  <si>
-    <t>00917</t>
-  </si>
-  <si>
-    <t>7150391122</t>
-  </si>
-  <si>
-    <t>IZ667391</t>
-  </si>
-  <si>
-    <t>OOLU1469941</t>
-  </si>
-  <si>
-    <t>TIRUA</t>
-  </si>
-  <si>
-    <t>018E</t>
-  </si>
-  <si>
-    <t>9075905138-01</t>
-  </si>
-  <si>
-    <t>OOLU2106531960</t>
-  </si>
-  <si>
-    <t>OOLU9869646</t>
-  </si>
-  <si>
-    <t>9075905129-01</t>
-  </si>
-  <si>
-    <t>OOLU2106525340</t>
-  </si>
-  <si>
-    <t>TCLU4350962</t>
-  </si>
-  <si>
-    <t>APL HOLLAND</t>
-  </si>
-  <si>
-    <t>001W</t>
-  </si>
-  <si>
-    <t>7232003065</t>
-  </si>
-  <si>
-    <t>540900075300</t>
-  </si>
-  <si>
-    <t>HLBU9212941</t>
-  </si>
-  <si>
-    <t>SANTA VIOLA</t>
-  </si>
-  <si>
-    <t>7232000420</t>
-  </si>
-  <si>
-    <t>HLCUEUR190427709</t>
-  </si>
-  <si>
-    <t>HLBU9080423</t>
-  </si>
-  <si>
-    <t>004W</t>
-  </si>
-  <si>
-    <t>7232003534</t>
-  </si>
-  <si>
-    <t>HLCUGOA190409294</t>
-  </si>
-  <si>
-    <t>TGHU5069120</t>
-  </si>
-  <si>
-    <t>CMA CGM WHITE SHARK</t>
-  </si>
-  <si>
-    <t>DJMIAA4160384</t>
-  </si>
-  <si>
-    <t>7150391779</t>
-  </si>
-  <si>
-    <t>RTM0908344</t>
-  </si>
-  <si>
-    <t>APZU4898643</t>
-  </si>
-  <si>
-    <t>DJMIAA4160321</t>
-  </si>
-  <si>
-    <t>7150391685</t>
-  </si>
-  <si>
-    <t>RTM0908534</t>
-  </si>
-  <si>
-    <t>MSCU3848835</t>
-  </si>
-  <si>
-    <t>7150390626</t>
-  </si>
-  <si>
-    <t>IZ658531</t>
-  </si>
-  <si>
-    <t>APZU4908150</t>
-  </si>
-  <si>
-    <t>DJMIAA4160370</t>
-  </si>
-  <si>
-    <t>7150391689</t>
-  </si>
-  <si>
-    <t>RTM0908537</t>
-  </si>
-  <si>
-    <t>ECMU4601917</t>
-  </si>
-  <si>
-    <t>DJMIAA4160400</t>
-  </si>
-  <si>
-    <t>7150391786</t>
-  </si>
-  <si>
-    <t>RTM0908350</t>
-  </si>
-  <si>
-    <t>TCNU3629538</t>
-  </si>
-  <si>
-    <t>DJMIAA4108440</t>
-  </si>
-  <si>
-    <t>7150390455</t>
-  </si>
-  <si>
-    <t>HLD0107415</t>
-  </si>
-  <si>
-    <t>GLDU4028645</t>
-  </si>
-  <si>
-    <t>MF917W</t>
-  </si>
-  <si>
-    <t>9076905736-01</t>
-  </si>
-  <si>
-    <t>MEDUQD534663</t>
-  </si>
-  <si>
-    <t>CCLU4444176</t>
-  </si>
-  <si>
-    <t>CMA CGM LA SCALA</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>7150388562</t>
-  </si>
-  <si>
-    <t>6201746030</t>
-  </si>
-  <si>
-    <t>TCNU6257028</t>
-  </si>
-  <si>
-    <t>NAVIOS UNITE</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>DJMIAA4120190</t>
-  </si>
-  <si>
-    <t>7150388569</t>
-  </si>
-  <si>
-    <t>6202927980</t>
+    <t>TTNU8030740</t>
+  </si>
+  <si>
+    <t>MSC CHARLESTON</t>
+  </si>
+  <si>
+    <t>918W</t>
+  </si>
+  <si>
+    <t>7232003085</t>
+  </si>
+  <si>
+    <t>LH894494</t>
+  </si>
+  <si>
+    <t>TTNU8484168</t>
+  </si>
+  <si>
+    <t>7232002673</t>
+  </si>
+  <si>
+    <t>LH884404</t>
   </si>
   <si>
     <t>CMAU9105959</t>
@@ -270,6 +468,15 @@
   </si>
   <si>
     <t>RTM0908535</t>
+  </si>
+  <si>
+    <t>CXRU1336021</t>
+  </si>
+  <si>
+    <t>7232006039</t>
+  </si>
+  <si>
+    <t>LH848607</t>
   </si>
 </sst>
 </file>
@@ -314,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -353,7 +560,9 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
@@ -411,7 +620,9 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
@@ -421,65 +632,67 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6"/>
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -502,30 +715,30 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -539,10 +752,10 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -559,44 +772,44 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -605,91 +818,425 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16"/>
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="F19" t="s">
+      <c r="C22" t="s">
         <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Miami/Test.xlsx
+++ b/Miami/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -263,21 +263,6 @@
     <t>6202923952</t>
   </si>
   <si>
-    <t>OOLU1469941</t>
-  </si>
-  <si>
-    <t>TIRUA</t>
-  </si>
-  <si>
-    <t>018E</t>
-  </si>
-  <si>
-    <t>9075905138-01</t>
-  </si>
-  <si>
-    <t>OOLU2106531960</t>
-  </si>
-  <si>
     <t>TEMU7603737</t>
   </si>
   <si>
@@ -302,15 +287,6 @@
     <t>HLCUGOA190409294</t>
   </si>
   <si>
-    <t>OOLU9869646</t>
-  </si>
-  <si>
-    <t>9075905129-01</t>
-  </si>
-  <si>
-    <t>OOLU2106525340</t>
-  </si>
-  <si>
     <t>CCLU4444176</t>
   </si>
   <si>
@@ -335,96 +311,51 @@
     <t>RTM0908534</t>
   </si>
   <si>
-    <t>MSCU3848835</t>
+    <t>TCLU4350962</t>
+  </si>
+  <si>
+    <t>APL HOLLAND</t>
+  </si>
+  <si>
+    <t>7232003065</t>
+  </si>
+  <si>
+    <t>540900075300</t>
+  </si>
+  <si>
+    <t>ECMU4601917</t>
+  </si>
+  <si>
+    <t>DJMIAA4160400</t>
+  </si>
+  <si>
+    <t>7150391786</t>
+  </si>
+  <si>
+    <t>RTM0908350</t>
+  </si>
+  <si>
+    <t>GLDU4028645</t>
   </si>
   <si>
     <t>MSC LUCY</t>
   </si>
   <si>
-    <t>00917</t>
-  </si>
-  <si>
-    <t>7150390626</t>
-  </si>
-  <si>
-    <t>IZ658531</t>
-  </si>
-  <si>
-    <t>UETU2690437</t>
-  </si>
-  <si>
-    <t>7150391122</t>
-  </si>
-  <si>
-    <t>IZ667391</t>
-  </si>
-  <si>
-    <t>TCLU4350962</t>
-  </si>
-  <si>
-    <t>APL HOLLAND</t>
-  </si>
-  <si>
-    <t>7232003065</t>
-  </si>
-  <si>
-    <t>540900075300</t>
-  </si>
-  <si>
-    <t>APZU4908150</t>
-  </si>
-  <si>
-    <t>DJMIAA4160370</t>
-  </si>
-  <si>
-    <t>7150391689</t>
-  </si>
-  <si>
-    <t>RTM0908537</t>
-  </si>
-  <si>
-    <t>ECMU4601917</t>
-  </si>
-  <si>
-    <t>DJMIAA4160400</t>
-  </si>
-  <si>
-    <t>7150391786</t>
-  </si>
-  <si>
-    <t>RTM0908350</t>
-  </si>
-  <si>
-    <t>GESU5553600</t>
+    <t>MF917W</t>
+  </si>
+  <si>
+    <t>9076905736-01</t>
+  </si>
+  <si>
+    <t>MEDUQD534663</t>
+  </si>
+  <si>
+    <t>ECMU4396108</t>
   </si>
   <si>
     <t>CMA CGM OTELLO</t>
   </si>
   <si>
-    <t>00031</t>
-  </si>
-  <si>
-    <t>7150390445</t>
-  </si>
-  <si>
-    <t>SEL0854936</t>
-  </si>
-  <si>
-    <t>GLDU4028645</t>
-  </si>
-  <si>
-    <t>MF917W</t>
-  </si>
-  <si>
-    <t>9076905736-01</t>
-  </si>
-  <si>
-    <t>MEDUQD534663</t>
-  </si>
-  <si>
-    <t>ECMU4396108</t>
-  </si>
-  <si>
     <t>0PG3JE1PL</t>
   </si>
   <si>
@@ -456,18 +387,6 @@
   </si>
   <si>
     <t>LH884404</t>
-  </si>
-  <si>
-    <t>CMAU9105959</t>
-  </si>
-  <si>
-    <t>DJMIAA4160346</t>
-  </si>
-  <si>
-    <t>7150391687</t>
-  </si>
-  <si>
-    <t>RTM0908535</t>
   </si>
   <si>
     <t>CXRU1336021</t>
@@ -521,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -892,73 +811,77 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>86</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>89</v>
       </c>
       <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
         <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>97</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
         <v>98</v>
       </c>
@@ -968,27 +891,27 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -1016,9 +939,7 @@
       <c r="D25" t="s">
         <v>110</v>
       </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
+      <c r="E25"/>
       <c r="F25" t="s">
         <v>111</v>
       </c>
@@ -1028,215 +949,77 @@
         <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E26"/>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
         <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
